--- a/data/income_statement/3digits/total/639_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/639_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>639-Other information service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>639-Other information service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>375363.2530200001</v>
+        <v>375363.25302</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>407370.18139</v>
@@ -959,34 +865,39 @@
         <v>483500.44462</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>462497.60157</v>
+        <v>462497.6015700001</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>394659.48563</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>472353.0272899999</v>
+        <v>472353.02729</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>690566.09351</v>
+        <v>691313.8940699999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>771762.2521899998</v>
+        <v>788956.1703800001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>991341.1052699999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1273372.67796</v>
+        <v>1273401.17797</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1339902.60531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1340456.36885</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1444736.615</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>338555.58789</v>
@@ -1007,25 +918,30 @@
         <v>389496.78574</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>584205.82143</v>
+        <v>584953.62199</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>666867.2003799998</v>
+        <v>681881.5806600001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>862734.02809</v>
+        <v>862734.0280899999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1110573.92355</v>
+        <v>1110573.92356</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1146382.44068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1146919.1829</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1218779.089</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>31836.36801</v>
@@ -1046,13 +962,13 @@
         <v>69943.21511</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>84818.14851</v>
+        <v>84818.14850999998</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>79301.07858999999</v>
+        <v>80777.03916</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>93266.9117</v>
+        <v>93266.91170000001</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>141873.34045</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>171033.49504</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>201261.466</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>4971.297119999999</v>
@@ -1088,22 +1009,27 @@
         <v>21542.12357</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>25593.97322</v>
+        <v>26297.55056</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>35340.16548</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>20925.41396</v>
+        <v>20953.91396</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>22486.66959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22503.69091</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>24696.06</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>11228.15087</v>
@@ -1127,7 +1053,7 @@
         <v>10055.88801</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>19205.10878</v>
+        <v>19689.02679</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>10873.5187</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>24299.01535</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>26723.373</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6919.47062</v>
@@ -1160,13 +1091,13 @@
         <v>6599.98439</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8017.871959999999</v>
+        <v>8017.87196</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9938.461509999999</v>
+        <v>9938.461509999997</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>19190.46866</v>
+        <v>19674.38667</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>10744.96268</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>24035.79798</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>26038.015</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4308.68025</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>4.64938</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>37.142</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>258.56799</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>648.216</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>364135.10215</v>
@@ -1268,37 +1214,42 @@
         <v>392464.0499400001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>472203.4765999999</v>
+        <v>472203.4766000001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>455984.2832899999</v>
+        <v>455984.2832900001</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>387758.31694</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>464077.37919</v>
+        <v>464077.3791900001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>680510.2055</v>
+        <v>681258.0060599999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>752557.1434100001</v>
+        <v>769267.1435899999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>980467.5865699999</v>
+        <v>980467.58657</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1257063.52905</v>
+        <v>1257092.02906</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1315603.58996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1316157.3535</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1418013.242</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>307161.93818</v>
@@ -1319,25 +1270,30 @@
         <v>475875.95553</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>688738.3301200001</v>
+        <v>689479.3513100001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>762940.83303</v>
+        <v>775467.8135</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>935693.41075</v>
+        <v>935693.4107500002</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1199523.81876</v>
+        <v>1199529.56035</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1271878.08003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1272131.52793</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1264238.031</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4460.66829</v>
@@ -1355,7 +1311,7 @@
         <v>1463.85425</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3335.84669</v>
+        <v>3335.846689999999</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>4269.77061</v>
@@ -1370,13 +1326,18 @@
         <v>2988.81376</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4645.51544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4645.515439999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1538.896</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3623.19413</v>
@@ -1397,10 +1358,10 @@
         <v>21402.15073</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>26644.82004</v>
+        <v>26648.82004</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>31168.96702</v>
+        <v>42132.32202000001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>59436.56597</v>
@@ -1409,13 +1370,18 @@
         <v>142343.15235</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>61884.5945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>61780.98355</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>126569.976</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>298792.30662</v>
@@ -1436,25 +1402,30 @@
         <v>450950.53811</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>657796.4682199999</v>
+        <v>658533.4894099999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>723472.69461</v>
+        <v>725036.32008</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>858439.81331</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1053420.00141</v>
+        <v>1053425.743</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1204855.23104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1205212.28989</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1135550.626</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>285.76914</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>492.73905</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>578.533</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>56973.16397</v>
@@ -1508,34 +1484,39 @@
         <v>43420.52476</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>-9056.558210000001</v>
+        <v>-9056.558210000005</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>-11798.57634</v>
+        <v>-11798.57633999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>-8228.12461999999</v>
+        <v>-8221.34525</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>-10383.68962</v>
+        <v>-6200.669909999996</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>44774.17581999999</v>
+        <v>44774.17582</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>57539.71029000001</v>
+        <v>57562.46870999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>43725.50993000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>44025.82557000001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>153775.211</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>54973.42037</v>
+        <v>54973.42037000001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>61434.06379</v>
@@ -1544,34 +1525,39 @@
         <v>70995.52183</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>64345.00454000001</v>
+        <v>64345.00454</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>92589.77243000001</v>
+        <v>92589.77243</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>142422.2715</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>149822.99173</v>
+        <v>149824.18049</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>178105.81739</v>
+        <v>185980.21124</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>267033.65179</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>261254.88261</v>
+        <v>261289.3776</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>310716.61192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>311041.25238</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>285813.241</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>612.37974</v>
@@ -1604,13 +1590,18 @@
         <v>3794.15608</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5611.751520000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5601.501520000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5711.58</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>15233.32495</v>
@@ -1634,22 +1625,27 @@
         <v>32940.99253</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>24392.23227</v>
+        <v>30092.59198</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>58995.12142</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>27398.26777</v>
+        <v>27400.01499</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>41533.32709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>41541.68289</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>26270.098</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>39127.71568</v>
@@ -1670,31 +1666,36 @@
         <v>108601.37182</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>113734.07706</v>
+        <v>113735.26582</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>134616.74712</v>
+        <v>136790.78126</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>185682.84943</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>230062.45876</v>
+        <v>230095.20653</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>263571.53331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>263898.06797</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>253831.563</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1999.7436</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1254.31427</v>
+        <v>-1254.314270000001</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>3717.42513</v>
@@ -1709,25 +1710,30 @@
         <v>-154220.84784</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-158051.11635</v>
+        <v>-158045.52574</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-188489.50701</v>
+        <v>-192180.88115</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-222259.47597</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-203715.17232</v>
+        <v>-203726.90889</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-266991.10199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-267015.42681</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-132038.03</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>30811.11343</v>
@@ -1751,7 +1757,7 @@
         <v>34546.38290999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>36967.60121</v>
+        <v>38072.65553</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>43952.78015</v>
@@ -1762,11 +1768,16 @@
       <c r="M25" s="47" t="n">
         <v>96158.74728999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="47" t="n">
+        <v>78510.13099999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16.33062</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>8835.353950000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>563.01687</v>
@@ -1856,7 +1877,7 @@
         <v>1624.67666</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>784.20377</v>
+        <v>784.2037700000002</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>1170.35722</v>
@@ -1868,10 +1889,10 @@
         <v>3751.50712</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4872.21358</v>
+        <v>5012.292570000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7545.488200000001</v>
+        <v>7545.4882</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>13062.40376</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>19576.06572</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>13291.794</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.14625</v>
@@ -1918,17 +1944,22 @@
       <c r="M29" s="48" t="n">
         <v>357.8303</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>211.566</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>456.46309</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>528.0964799999999</v>
+        <v>528.09648</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>344.86464</v>
@@ -1937,7 +1968,7 @@
         <v>544.0966099999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>582.7936199999999</v>
+        <v>582.79362</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>510.38071</v>
@@ -1946,7 +1977,7 @@
         <v>447.7276799999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1141.06696</v>
+        <v>1741.56997</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3848.293619999999</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>1306.71751</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>639.436</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>48.96202</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>42.03317999999999</v>
+        <v>42.03318</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>544.52225</v>
@@ -1985,7 +2021,7 @@
         <v>94.33619999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>208.42656</v>
+        <v>318.30849</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>291.54761</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1333.34943</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2751.744</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>29172.02083</v>
@@ -2012,7 +2053,7 @@
         <v>10664.54883</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5085.460470000001</v>
+        <v>5085.46047</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>12942.35382</v>
@@ -2024,7 +2065,7 @@
         <v>27689.06556</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>28981.88441</v>
+        <v>29221.69667</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>29730.81813</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>61986.26805</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>56704.554</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>92.90486999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>461.26888</v>
@@ -2141,7 +2197,7 @@
         <v>2310.81922</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1422.50165</v>
+        <v>1437.27978</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>2026.7222</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>2693.16233</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>4378.037</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>31831.51907</v>
@@ -2180,22 +2241,27 @@
         <v>43972.31092</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>38842.23306000001</v>
+        <v>39340.45637</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>39538.75055999999</v>
+        <v>39538.75056</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>130413.35006</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>59753.09185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>59753.47349</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>64026.378</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>204.33337</v>
@@ -2204,22 +2270,22 @@
         <v>49.56408</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>98.55730000000001</v>
+        <v>98.5573</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>307.17664</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>477.1849399999999</v>
+        <v>477.18494</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>768.08029</v>
+        <v>768.0802899999999</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>1088.03006</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1510.44117</v>
+        <v>1532.18781</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>2184.89218</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>2054.49676</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1721.066</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1827.60683</v>
@@ -2258,7 +2329,7 @@
         <v>4598.32571</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4892.45474</v>
+        <v>4931.717130000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>2727.78653</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3609.40273</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1652.961</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>51.59896</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>698.816</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>29553.2871</v>
@@ -2336,7 +2417,7 @@
         <v>35197.41533</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>30088.92753</v>
+        <v>30523.45169</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>33123.31636</v>
@@ -2345,13 +2426,18 @@
         <v>125163.34902</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>53262.26402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>53262.64566</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>57918.395</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>53.51492</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>192.77685</v>
@@ -2447,13 +2543,13 @@
         <v>1129.40266</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>661.92132</v>
+        <v>661.9213199999999</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>2966.31957</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2313.51432</v>
+        <v>2316.20444</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1501.85337</v>
@@ -2462,13 +2558,18 @@
         <v>535.6585</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>775.3293799999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>775.32938</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2035.14</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2191.48021</v>
@@ -2492,7 +2593,7 @@
         <v>1840.1028</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4056.23192</v>
+        <v>4056.38942</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>4431.51244</v>
@@ -2501,13 +2602,18 @@
         <v>7044.72668</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>14451.00264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>14451.50054</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7953.99</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>2191.4003</v>
@@ -2531,22 +2637,27 @@
         <v>1833.70846</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4000.08233</v>
+        <v>4000.23983</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>4378.09492</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7012.78975</v>
+        <v>7012.789750000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>14302.25801</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>14302.75591</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>7825.801</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0.07990999999999999</v>
@@ -2581,20 +2692,25 @@
       <c r="M46" s="48" t="n">
         <v>148.74463</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>128.189</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1212.142249999999</v>
+        <v>-1212.14225</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>-4554.93142</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2147.45087</v>
+        <v>2147.450870000001</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>-22509.85716</v>
@@ -2606,25 +2722,30 @@
         <v>-156628.89065</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-169317.14716</v>
+        <v>-169311.55655</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-194420.37078</v>
+        <v>-197505.07141</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-222276.95882</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-204703.29011</v>
+        <v>-204715.02668</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-245036.44919</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-245061.65355</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-125508.267</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>892.86927</v>
@@ -2648,22 +2769,27 @@
         <v>179270.73194</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>213293.23182</v>
+        <v>213419.74293</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>244554.50528</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>271925.18218</v>
+        <v>271928.18218</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>324693.56564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>324723.88566</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>298051.517</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4.1417</v>
@@ -2681,7 +2807,7 @@
         <v>1875.24893</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>862.9840499999999</v>
+        <v>862.98405</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1620.08701</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>3858.17499</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>36.015</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>888.7275699999999</v>
+        <v>888.72757</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>3977.69908</v>
@@ -2726,22 +2857,27 @@
         <v>177650.64493</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>212027.31985</v>
+        <v>212153.83096</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>243108.59049</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>271106.27183</v>
+        <v>271109.27183</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>320835.39065</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>320865.71067</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>298015.502</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1993.92187</v>
@@ -2765,22 +2901,27 @@
         <v>5683.24512</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>13362.83301</v>
+        <v>13390.40787</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>7772.9699</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>14527.97848</v>
+        <v>14535.78778</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>7783.495260000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7834.9698</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13861.39</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.22906</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>280.72547</v>
@@ -2834,7 +2980,7 @@
         <v>136.76513</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>885.2760100000002</v>
+        <v>885.27601</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>296.53547</v>
@@ -2849,16 +2995,21 @@
         <v>1819.77522</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>644.6106000000001</v>
+        <v>644.6106</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>741.10921</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>771.22</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1712.96734</v>
@@ -2870,34 +3021,39 @@
         <v>28720.21096</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5025.065810000001</v>
+        <v>5025.065809999999</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>6735.032020000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4607.04177</v>
+        <v>4607.041770000001</v>
       </c>
       <c r="I54" s="48" t="n">
         <v>5188.566980000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13177.93824</v>
+        <v>13205.5131</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>5953.19468</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>13883.25435</v>
+        <v>13891.06365</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7042.386050000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7093.860590000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13090.17</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-2313.19485</v>
@@ -2912,31 +3068,36 @@
         <v>21481.8645</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5689.132190000001</v>
+        <v>5689.132189999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-4578.857559999999</v>
+        <v>-4578.857559999998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4270.339660000001</v>
+        <v>4275.930270000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5510.02803</v>
+        <v>2524.26365</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>14504.57656</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>52693.91359</v>
+        <v>52677.36772</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>71873.62118999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>71827.26231000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>158681.86</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2062.34691</v>
@@ -2951,7 +3112,7 @@
         <v>4514.65208</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7588.88929</v>
+        <v>7588.889289999999</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>6985.36975</v>
@@ -2960,7 +3121,7 @@
         <v>7549.061269999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6607.966699999999</v>
+        <v>6709.67433</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>9624.85405</v>
@@ -2969,13 +3130,18 @@
         <v>19481.91579</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>32007.20049</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>32034.92951</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>39182.22</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-4375.54176</v>
@@ -2996,22 +3162,25 @@
         <v>-11564.22731</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3278.721610000001</v>
+        <v>-3273.131</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1097.93867</v>
+        <v>-4185.41068</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4879.722509999998</v>
+        <v>4879.72251</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>33211.9978</v>
+        <v>33195.45193</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>39866.4207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>39792.3328</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>119499.64</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>167</v>
@@ -3050,22 +3222,25 @@
         <v>304</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>362</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>377</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>